--- a/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\usfx\COM-350 Arquitectura de software\2-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="330" windowWidth="21015" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$K$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Columna</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Enunciado de la Historia</t>
-  </si>
-  <si>
-    <t>XX-XXXX-XXXX</t>
   </si>
   <si>
     <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
@@ -89,9 +86,6 @@
     <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
   <si>
-    <t>Como [Rol], quiero [descripción de la funcionalidad], para poder [Razón o Resultado]</t>
-  </si>
-  <si>
     <t>Puntos Valor</t>
   </si>
   <si>
@@ -113,6 +107,69 @@
   </si>
   <si>
     <t>Retorno de la inversion PuntosValor /Puntos Historia , sirve para priorizar el desarrollo</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [guardar tareas [para poder getionarlas  y ser mas prodcutivo]</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [eliminar tareas], para poder [vaciar las tareas  ya realizadas]</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [tener un vista pricipal de todas mis tareas ], para poder [para saber que tareas me falta realizar]</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [un vista indiidual para cada tarea], para poder [para visualizar mejor mis tareas]</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [editar tareas], para poder [corregir errores]</t>
+  </si>
+  <si>
+    <t>hu-1</t>
+  </si>
+  <si>
+    <t>hu-2</t>
+  </si>
+  <si>
+    <t>hu-3</t>
+  </si>
+  <si>
+    <t>hu-4</t>
+  </si>
+  <si>
+    <t>hu-5</t>
+  </si>
+  <si>
+    <t>hu-6</t>
+  </si>
+  <si>
+    <t>guardar tareas</t>
+  </si>
+  <si>
+    <t>eliminar tareas</t>
+  </si>
+  <si>
+    <t>vista principal</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>vista individual</t>
+  </si>
+  <si>
+    <t>editar tareas</t>
+  </si>
+  <si>
+    <t>Tecnologia de control de Version : GIT , GITHUB</t>
+  </si>
+  <si>
+    <t>Tecnologias de Desarrollo :  HMTL, CSS , JAVASCRIPT, NODE JS , EXPRESS JS , MONGODB , NPM, JEST</t>
+  </si>
+  <si>
+    <t>Plataformas de Produccion : HEROKU , MOGODB ATLAS CLOUD ,GITHUB PAGES</t>
   </si>
 </sst>
 </file>
@@ -518,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +600,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
@@ -557,38 +614,40 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -599,12 +658,14 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -613,14 +674,16 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -629,14 +692,16 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -645,14 +710,16 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -663,12 +730,14 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -677,133 +746,20 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -830,7 +786,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -849,7 +805,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="75" x14ac:dyDescent="0.25">
@@ -857,71 +813,71 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+  <si>
+    <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
+  </si>
+  <si>
+    <t>Identificador (ID) de la Historia</t>
+  </si>
+  <si>
+    <t>Enunciado de la Historia</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Puntos Valor</t>
+  </si>
+  <si>
+    <t>Puntos Historia</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Iteración (Sprint)</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>hu-1</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [guardar tareas [para poder getionarlas  y ser mas prodcutivo]</t>
+  </si>
+  <si>
+    <t>guardar tareas</t>
+  </si>
+  <si>
+    <t>hu-2</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [eliminar tareas], para poder [vaciar las tareas  ya realizadas]</t>
+  </si>
+  <si>
+    <t>eliminar tareas</t>
+  </si>
+  <si>
+    <t>hu-3</t>
+  </si>
+  <si>
+    <t>Como [Usuario ], quiero [tener un vista pricipal de todas mis tareas ], para poder [para saber que tareas me falta realizar]</t>
+  </si>
+  <si>
+    <t>vista principal</t>
+  </si>
+  <si>
+    <t>hu-4</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>hu-5</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [un vista indiidual para cada tarea], para poder [para visualizar mejor mis tareas]</t>
+  </si>
+  <si>
+    <t>vista individual</t>
+  </si>
+  <si>
+    <t>hu-6</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [editar tareas], para poder [corregir errores]</t>
+  </si>
+  <si>
+    <t>editar tareas</t>
+  </si>
+  <si>
+    <t>Tecnologias de Desarrollo :  HMTL, CSS , JAVASCRIPT, NODE JS , EXPRESS JS , MONGODB , NPM, JEST</t>
+  </si>
+  <si>
+    <t>Tecnologia de control de Version : GIT , GITHUB</t>
+  </si>
+  <si>
+    <t>Plataformas de Produccion : HEROKU , MOGODB ATLAS CLOUD ,GITHUB PAGES</t>
+  </si>
+  <si>
+    <t>Pila de Producto (Product Backlog): Instructivo</t>
+  </si>
   <si>
     <t>Columna</t>
   </si>
@@ -32,28 +131,15 @@
     <t>Instrucciones</t>
   </si>
   <si>
-    <t>Identificador (ID) de la Historia</t>
-  </si>
-  <si>
-    <t>Enunciado de la Historia</t>
-  </si>
-  <si>
-    <t>Desarrollo ágil: Pila de Producto (Product Backlog)</t>
-  </si>
-  <si>
-    <t>Pila de Producto (Product Backlog): Instructivo</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Iteración (Sprint)</t>
-  </si>
-  <si>
-    <t>Prioridad</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
+    <t>Código que identifica a la historia de forma unívoca, una vez asignado, no debe ser re-usado en otra historia, ni siquiera si la historia es descartada. El código identifica la historia en otros documentos, como por ejemplo la plantilla de historias de usuario.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la historia, el cual debe ser el mismo que se utiliza en otros documentos. Se puede utilizar el formato siguiente:
+Como [Rol], Quiero [Descripción de la Funcionalidad], para [Razón o Resultado]
+</t>
+  </si>
+  <si>
+    <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
   </si>
   <si>
     <t xml:space="preserve">Identifica los posibles estados de la historia durante su ciclo de vida:
@@ -65,9 +151,18 @@
 </t>
   </si>
   <si>
+    <t>Medida del Valor para el dueño del producto</t>
+  </si>
+  <si>
+    <t>Puntos Historia (Esfuerzo)</t>
+  </si>
+  <si>
     <t>Medida del esfuerzo (tamaño) que implica desarrollar la historia, existen distintos métodos para medirlo, un ejemplo es los “puntos de historia” una medida de complejidad no necesariamente relacionado con jornadas o días. Otra forma de medirlo es con días o jornadas ideales.</t>
   </si>
   <si>
+    <t>Retorno de la inversion PuntosValor /Puntos Historia , sirve para priorizar el desarrollo</t>
+  </si>
+  <si>
     <t>Iteración o Sprint al que se asigna la historia. Esta asignación puede cambiar en cada iteración donde se haga la revisión de la pila de producto (ProductBacklogReview), según las prioridades indicadas por el dueño de producto. Por medio de este campo se puede crear un “Plan de Salidas a Productivo” (Release Plan).</t>
   </si>
   <si>
@@ -77,118 +172,19 @@
     <t>Comentarios o detalles relacionadas que expliquen la historia. Para definiciones de mayor longitud deben usarse documentos externos, por ejemplo la plantilla de historias de usuario.</t>
   </si>
   <si>
-    <t>Código que identifica a la historia de forma unívoca, una vez asignado, no debe ser re-usado en otra historia, ni siquiera si la historia es descartada. El código identifica la historia en otros documentos, como por ejemplo la plantilla de historias de usuario.</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Título de la historia alternativo a la descripción, que servirá para identificar más fácilmente la historia sin tener que repetir todo su enunciado. Se puede utilizar por ejemplo el nombre de la funcionalidad o requerimiento que se pretende desarrollar.</t>
-  </si>
-  <si>
-    <t>Puntos Valor</t>
-  </si>
-  <si>
-    <t>ROI</t>
-  </si>
-  <si>
-    <t>Puntos Historia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de la historia, el cual debe ser el mismo que se utiliza en otros documentos. Se puede utilizar el formato siguiente:
-Como [Rol], Quiero [Descripción de la Funcionalidad], para [Razón o Resultado]
-</t>
-  </si>
-  <si>
-    <t>Medida del Valor para el dueño del producto</t>
-  </si>
-  <si>
-    <t>Puntos Historia (Esfuerzo)</t>
-  </si>
-  <si>
-    <t>Retorno de la inversion PuntosValor /Puntos Historia , sirve para priorizar el desarrollo</t>
-  </si>
-  <si>
-    <t>Como [Usuario], quiero [guardar tareas [para poder getionarlas  y ser mas prodcutivo]</t>
-  </si>
-  <si>
-    <t>Como [Usuario ], quiero [eliminar tareas], para poder [vaciar las tareas  ya realizadas]</t>
-  </si>
-  <si>
-    <t>Como [Usuario ], quiero [tener un vista pricipal de todas mis tareas ], para poder [para saber que tareas me falta realizar]</t>
-  </si>
-  <si>
-    <t>Como [Usuario], quiero [un vista indiidual para cada tarea], para poder [para visualizar mejor mis tareas]</t>
-  </si>
-  <si>
-    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
-  </si>
-  <si>
-    <t>Como [Usuario], quiero [editar tareas], para poder [corregir errores]</t>
-  </si>
-  <si>
-    <t>hu-1</t>
-  </si>
-  <si>
-    <t>hu-2</t>
-  </si>
-  <si>
-    <t>hu-3</t>
-  </si>
-  <si>
-    <t>hu-4</t>
-  </si>
-  <si>
-    <t>hu-5</t>
-  </si>
-  <si>
-    <t>hu-6</t>
-  </si>
-  <si>
-    <t>guardar tareas</t>
-  </si>
-  <si>
-    <t>eliminar tareas</t>
-  </si>
-  <si>
-    <t>vista principal</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>vista individual</t>
-  </si>
-  <si>
-    <t>editar tareas</t>
-  </si>
-  <si>
-    <t>Tecnologia de control de Version : GIT , GITHUB</t>
-  </si>
-  <si>
-    <t>Tecnologias de Desarrollo :  HMTL, CSS , JAVASCRIPT, NODE JS , EXPRESS JS , MONGODB , NPM, JEST</t>
-  </si>
-  <si>
-    <t>Plataformas de Produccion : HEROKU , MOGODB ATLAS CLOUD ,GITHUB PAGES</t>
+    <t>Puntos Historia por Semana : 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,7 +192,7 @@
       <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,7 +200,14 @@
       <sz val="16"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,13 +220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,16 +241,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,20 +258,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -331,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,193 +577,260 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="88.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="1.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="6" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:11" ht="36">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" ht="21">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="2:11" ht="30">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" customHeight="1">
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.143</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I6" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="J6" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" ht="30">
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:11" ht="30">
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:11" ht="30">
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5">
         <v>6</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="G11" s="6">
+        <f>SUM(G5:G10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup scale="70" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -771,113 +838,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="86" style="5" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:3" ht="36">
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="21">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="45">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="75">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="45">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="225">
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="50.25" customHeight="1">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="60">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="60">
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="30">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
+++ b/scrum/PMOInformatica Plantilla de Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Proyectos\mypragmaticode\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -89,12 +89,6 @@
     <t>hu-4</t>
   </si>
   <si>
-    <t>Como [Usuario], quiero [registrarme ], para poder [gestionar mis tareas y sean privadas y solo yo pueda verlas]</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>hu-5</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>Puntos Historia por Semana : 10</t>
+  </si>
+  <si>
+    <t>produccion</t>
+  </si>
+  <si>
+    <t>Como [Usuario], quiero [ingresar a la web], para poder [utilizarla mediante internet]</t>
   </si>
 </sst>
 </file>
@@ -331,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,7 +578,7 @@
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -720,15 +720,15 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="2:11" ht="30">
+    <row r="8" spans="2:11">
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5">
@@ -750,13 +750,13 @@
     </row>
     <row r="9" spans="2:11" ht="30">
       <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5">
@@ -778,13 +778,13 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5">
@@ -812,20 +812,20 @@
     </row>
     <row r="14" spans="2:11">
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1" spans="2:3" ht="36">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="21">
@@ -861,10 +861,10 @@
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="45">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="75">
@@ -880,7 +880,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="45">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="225">
@@ -896,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -904,15 +904,15 @@
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="50.25" customHeight="1">
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="50.25" customHeight="1">
@@ -920,7 +920,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="60">
@@ -928,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="60">
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="30">
@@ -944,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
